--- a/ContactCenter/trunk/kettle/MAXDAT/implementation/NYHIX/data/configuration.xlsx
+++ b/ContactCenter/trunk/kettle/MAXDAT/implementation/NYHIX/data/configuration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="240" windowWidth="11280" windowHeight="7725" tabRatio="762"/>
+    <workbookView xWindow="480" yWindow="240" windowWidth="11280" windowHeight="7725" tabRatio="762" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Projects" sheetId="1" r:id="rId1"/>
@@ -305,7 +305,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3205" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3231" uniqueCount="699">
   <si>
     <t>PROJECT_NAME</t>
   </si>
@@ -2387,6 +2387,21 @@
   </si>
   <si>
     <t>NYHBE_MANDARIN2_sk</t>
+  </si>
+  <si>
+    <t>unit_of_work_category</t>
+  </si>
+  <si>
+    <t>INBOUND_CALL</t>
+  </si>
+  <si>
+    <t>OUTBOUND_CALL</t>
+  </si>
+  <si>
+    <t>IVR</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -2859,7 +2874,7 @@
   </sheetPr>
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -18613,10 +18628,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18625,9 +18640,10 @@
     <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>226</v>
       </c>
@@ -18643,8 +18659,11 @@
       <c r="E1" s="11" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -18660,8 +18679,11 @@
       <c r="E2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -18677,8 +18699,11 @@
       <c r="E3" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -18694,8 +18719,11 @@
       <c r="E4" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -18711,8 +18739,11 @@
       <c r="E5" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -18728,8 +18759,11 @@
       <c r="E6" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -18745,8 +18779,11 @@
       <c r="E7" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -18762,8 +18799,11 @@
       <c r="E8" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -18779,8 +18819,11 @@
       <c r="E9" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -18796,8 +18839,11 @@
       <c r="E10" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -18813,8 +18859,11 @@
       <c r="E11" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -18830,8 +18879,11 @@
       <c r="E12" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -18847,8 +18899,11 @@
       <c r="E13" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -18864,8 +18919,11 @@
       <c r="E14" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -18881,8 +18939,11 @@
       <c r="E15" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -18898,8 +18959,11 @@
       <c r="E16" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -18915,8 +18979,11 @@
       <c r="E17" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -18931,6 +18998,49 @@
       </c>
       <c r="E18" t="s">
         <v>232</v>
+      </c>
+      <c r="F18" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>697</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>231</v>
+      </c>
+      <c r="E19" t="s">
+        <v>232</v>
+      </c>
+      <c r="F19" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>698</v>
+      </c>
+      <c r="C20" s="22">
+        <v>0</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="F20" t="s">
+        <v>698</v>
       </c>
     </row>
   </sheetData>

--- a/ContactCenter/trunk/kettle/MAXDAT/implementation/NYHIX/data/configuration.xlsx
+++ b/ContactCenter/trunk/kettle/MAXDAT/implementation/NYHIX/data/configuration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="240" windowWidth="11280" windowHeight="7725" tabRatio="762" activeTab="8"/>
+    <workbookView xWindow="480" yWindow="240" windowWidth="11280" windowHeight="7725" tabRatio="762"/>
   </bookViews>
   <sheets>
     <sheet name="Projects" sheetId="1" r:id="rId1"/>
@@ -305,7 +305,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3231" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3232" uniqueCount="700">
   <si>
     <t>PROJECT_NAME</t>
   </si>
@@ -2402,6 +2402,9 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>INCLUDE_IN_REPORTS_FLAG</t>
   </si>
 </sst>
 </file>
@@ -2872,10 +2875,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2891,9 +2894,10 @@
     <col min="9" max="9" width="12.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>224</v>
       </c>
@@ -2927,8 +2931,11 @@
       <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="22">
         <v>1</v>
       </c>
@@ -2962,8 +2969,11 @@
       <c r="K2" s="16">
         <v>401768</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="22">
         <v>2</v>
       </c>
@@ -2997,8 +3007,11 @@
       <c r="K3" s="16">
         <v>401768</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
         <v>3</v>
       </c>
@@ -3032,8 +3045,11 @@
       <c r="K4" s="16">
         <v>401768</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="22">
         <v>4</v>
       </c>
@@ -3066,6 +3082,9 @@
       </c>
       <c r="K5" s="16">
         <v>401768</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -18630,7 +18649,7 @@
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
